--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Il12a-Il12rb2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,12 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -88,16 +94,10 @@
     <t>ECs</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
   </si>
   <si>
     <t>M2</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.41965097313743</v>
+        <v>0.09838366666666666</v>
       </c>
       <c r="H2">
-        <v>1.41965097313743</v>
+        <v>0.295151</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.111185397393657</v>
+        <v>0.1352486666666667</v>
       </c>
       <c r="N2">
-        <v>0.111185397393657</v>
+        <v>0.4057460000000001</v>
       </c>
       <c r="O2">
-        <v>0.02606807020573926</v>
+        <v>0.02878782923011966</v>
       </c>
       <c r="P2">
-        <v>0.02606807020573926</v>
+        <v>0.02878782923011965</v>
       </c>
       <c r="Q2">
-        <v>0.157844457608577</v>
+        <v>0.01330625973844445</v>
       </c>
       <c r="R2">
-        <v>0.157844457608577</v>
+        <v>0.119756337646</v>
       </c>
       <c r="S2">
-        <v>0.02606807020573926</v>
+        <v>0.001021118860234188</v>
       </c>
       <c r="T2">
-        <v>0.02606807020573926</v>
+        <v>0.001021118860234188</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.41965097313743</v>
+        <v>0.09838366666666666</v>
       </c>
       <c r="H3">
-        <v>1.41965097313743</v>
+        <v>0.295151</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.514796550697153</v>
+        <v>0.5542496666666666</v>
       </c>
       <c r="N3">
-        <v>0.514796550697153</v>
+        <v>1.662749</v>
       </c>
       <c r="O3">
-        <v>0.1206970783918013</v>
+        <v>0.1179726584231323</v>
       </c>
       <c r="P3">
-        <v>0.1206970783918013</v>
+        <v>0.1179726584231323</v>
       </c>
       <c r="Q3">
-        <v>0.7308314241650057</v>
+        <v>0.05452911445544444</v>
       </c>
       <c r="R3">
-        <v>0.7308314241650057</v>
+        <v>0.490762030099</v>
       </c>
       <c r="S3">
-        <v>0.1206970783918013</v>
+        <v>0.00418454985073306</v>
       </c>
       <c r="T3">
-        <v>0.1206970783918013</v>
+        <v>0.00418454985073306</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.41965097313743</v>
+        <v>0.09838366666666666</v>
       </c>
       <c r="H4">
-        <v>1.41965097313743</v>
+        <v>0.295151</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.33013091480848</v>
+        <v>1.414611333333333</v>
       </c>
       <c r="N4">
-        <v>1.33013091480848</v>
+        <v>4.243834</v>
       </c>
       <c r="O4">
-        <v>0.3118570143459302</v>
+        <v>0.3011015967451943</v>
       </c>
       <c r="P4">
-        <v>0.3118570143459302</v>
+        <v>0.3011015967451943</v>
       </c>
       <c r="Q4">
-        <v>1.888321647608038</v>
+        <v>0.1391746498815555</v>
       </c>
       <c r="R4">
-        <v>1.888321647608038</v>
+        <v>1.252571848934</v>
       </c>
       <c r="S4">
-        <v>0.3118570143459302</v>
+        <v>0.01068022589773675</v>
       </c>
       <c r="T4">
-        <v>0.3118570143459302</v>
+        <v>0.01068022589773675</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.41965097313743</v>
+        <v>0.09838366666666666</v>
       </c>
       <c r="H5">
-        <v>1.41965097313743</v>
+        <v>0.295151</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.29753390836176</v>
+        <v>1.427436666666667</v>
       </c>
       <c r="N5">
-        <v>1.29753390836176</v>
+        <v>4.28231</v>
       </c>
       <c r="O5">
-        <v>0.3042144545092146</v>
+        <v>0.3038314832196342</v>
       </c>
       <c r="P5">
-        <v>0.3042144545092146</v>
+        <v>0.3038314832196342</v>
       </c>
       <c r="Q5">
-        <v>1.842045275684586</v>
+        <v>0.1404364532011111</v>
       </c>
       <c r="R5">
-        <v>1.842045275684586</v>
+        <v>1.26392807881</v>
       </c>
       <c r="S5">
-        <v>0.3042144545092146</v>
+        <v>0.0107770563514353</v>
       </c>
       <c r="T5">
-        <v>0.3042144545092146</v>
+        <v>0.0107770563514353</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.41965097313743</v>
+        <v>0.09838366666666666</v>
       </c>
       <c r="H6">
-        <v>1.41965097313743</v>
+        <v>0.295151</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.03547050568042931</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.328942624666769</v>
+        <v>0.3838566666666667</v>
       </c>
       <c r="N6">
-        <v>0.328942624666769</v>
+        <v>1.15157</v>
       </c>
       <c r="O6">
-        <v>0.07712253258504485</v>
+        <v>0.08170431872779743</v>
       </c>
       <c r="P6">
-        <v>0.07712253258504485</v>
+        <v>0.0817043187277974</v>
       </c>
       <c r="Q6">
-        <v>0.466983717214559</v>
+        <v>0.03776522634111111</v>
       </c>
       <c r="R6">
-        <v>0.466983717214559</v>
+        <v>0.33988703707</v>
       </c>
       <c r="S6">
-        <v>0.07712253258504485</v>
+        <v>0.002898093501549946</v>
       </c>
       <c r="T6">
-        <v>0.07712253258504485</v>
+        <v>0.002898093501549945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,805 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.09838366666666666</v>
+      </c>
+      <c r="H7">
+        <v>0.295151</v>
+      </c>
+      <c r="I7">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="J7">
+        <v>0.03547050568042931</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.7827166666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.34815</v>
+      </c>
+      <c r="O7">
+        <v>0.1666021136541222</v>
+      </c>
+      <c r="P7">
+        <v>0.1666021136541222</v>
+      </c>
+      <c r="Q7">
+        <v>0.07700653562777778</v>
+      </c>
+      <c r="R7">
+        <v>0.69305882065</v>
+      </c>
+      <c r="S7">
+        <v>0.005909461218740071</v>
+      </c>
+      <c r="T7">
+        <v>0.00590946121874007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>21</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G8">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H8">
+        <v>2.331118</v>
+      </c>
+      <c r="I8">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J8">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.1352486666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.4057460000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.02878782923011966</v>
+      </c>
+      <c r="P8">
+        <v>0.02878782923011965</v>
+      </c>
+      <c r="Q8">
+        <v>0.1050935337808889</v>
+      </c>
+      <c r="R8">
+        <v>0.9458418040280001</v>
+      </c>
+      <c r="S8">
+        <v>0.008064850043643426</v>
+      </c>
+      <c r="T8">
+        <v>0.008064850043643424</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H9">
+        <v>2.331118</v>
+      </c>
+      <c r="I9">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J9">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.5542496666666666</v>
+      </c>
+      <c r="N9">
+        <v>1.662749</v>
+      </c>
+      <c r="O9">
+        <v>0.1179726584231323</v>
+      </c>
+      <c r="P9">
+        <v>0.1179726584231323</v>
+      </c>
+      <c r="Q9">
+        <v>0.4306737914868888</v>
+      </c>
+      <c r="R9">
+        <v>3.876064123382</v>
+      </c>
+      <c r="S9">
+        <v>0.03304979308537376</v>
+      </c>
+      <c r="T9">
+        <v>0.03304979308537375</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H10">
+        <v>2.331118</v>
+      </c>
+      <c r="I10">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J10">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.414611333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.243834</v>
+      </c>
+      <c r="O10">
+        <v>0.3011015967451943</v>
+      </c>
+      <c r="P10">
+        <v>0.3011015967451943</v>
+      </c>
+      <c r="Q10">
+        <v>1.099208647379111</v>
+      </c>
+      <c r="R10">
+        <v>9.892877826411999</v>
+      </c>
+      <c r="S10">
+        <v>0.08435298147145122</v>
+      </c>
+      <c r="T10">
+        <v>0.0843529814714512</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H11">
+        <v>2.331118</v>
+      </c>
+      <c r="I11">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J11">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.427436666666667</v>
+      </c>
+      <c r="N11">
+        <v>4.28231</v>
+      </c>
+      <c r="O11">
+        <v>0.3038314832196342</v>
+      </c>
+      <c r="P11">
+        <v>0.3038314832196342</v>
+      </c>
+      <c r="Q11">
+        <v>1.109174435842222</v>
+      </c>
+      <c r="R11">
+        <v>9.98256992258</v>
+      </c>
+      <c r="S11">
+        <v>0.08511775344771033</v>
+      </c>
+      <c r="T11">
+        <v>0.0851177534477103</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H12">
+        <v>2.331118</v>
+      </c>
+      <c r="I12">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J12">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.3838566666666667</v>
+      </c>
+      <c r="N12">
+        <v>1.15157</v>
+      </c>
+      <c r="O12">
+        <v>0.08170431872779743</v>
+      </c>
+      <c r="P12">
+        <v>0.0817043187277974</v>
+      </c>
+      <c r="Q12">
+        <v>0.2982717283622222</v>
+      </c>
+      <c r="R12">
+        <v>2.68444555526</v>
+      </c>
+      <c r="S12">
+        <v>0.02288929370778383</v>
+      </c>
+      <c r="T12">
+        <v>0.02288929370778383</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.7770393333333333</v>
+      </c>
+      <c r="H13">
+        <v>2.331118</v>
+      </c>
+      <c r="I13">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="J13">
+        <v>0.2801479048376967</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.7827166666666666</v>
+      </c>
+      <c r="N13">
+        <v>2.34815</v>
+      </c>
+      <c r="O13">
+        <v>0.1666021136541222</v>
+      </c>
+      <c r="P13">
+        <v>0.1666021136541222</v>
+      </c>
+      <c r="Q13">
+        <v>0.6082016368555555</v>
+      </c>
+      <c r="R13">
+        <v>5.4738147317</v>
+      </c>
+      <c r="S13">
+        <v>0.04667323308173416</v>
+      </c>
+      <c r="T13">
+        <v>0.04667323308173415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H14">
+        <v>5.694757</v>
+      </c>
+      <c r="I14">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J14">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.1352486666666667</v>
+      </c>
+      <c r="N14">
+        <v>0.4057460000000001</v>
+      </c>
+      <c r="O14">
+        <v>0.02878782923011966</v>
+      </c>
+      <c r="P14">
+        <v>0.02878782923011965</v>
+      </c>
+      <c r="Q14">
+        <v>0.2567360970802223</v>
+      </c>
+      <c r="R14">
+        <v>2.310624873722</v>
+      </c>
+      <c r="S14">
+        <v>0.01970186032624205</v>
+      </c>
+      <c r="T14">
+        <v>0.01970186032624204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1.41965097313743</v>
-      </c>
-      <c r="H7">
-        <v>1.41965097313743</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.682605400470187</v>
-      </c>
-      <c r="N7">
-        <v>0.682605400470187</v>
-      </c>
-      <c r="O7">
-        <v>0.1600408499622697</v>
-      </c>
-      <c r="P7">
-        <v>0.1600408499622697</v>
-      </c>
-      <c r="Q7">
-        <v>0.9690614210463662</v>
-      </c>
-      <c r="R7">
-        <v>0.9690614210463662</v>
-      </c>
-      <c r="S7">
-        <v>0.1600408499622697</v>
-      </c>
-      <c r="T7">
-        <v>0.1600408499622697</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H15">
+        <v>5.694757</v>
+      </c>
+      <c r="I15">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J15">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.5542496666666666</v>
+      </c>
+      <c r="N15">
+        <v>1.662749</v>
+      </c>
+      <c r="O15">
+        <v>0.1179726584231323</v>
+      </c>
+      <c r="P15">
+        <v>0.1179726584231323</v>
+      </c>
+      <c r="Q15">
+        <v>1.052105722999222</v>
+      </c>
+      <c r="R15">
+        <v>9.468951506993001</v>
+      </c>
+      <c r="S15">
+        <v>0.08073831548702545</v>
+      </c>
+      <c r="T15">
+        <v>0.08073831548702545</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H16">
+        <v>5.694757</v>
+      </c>
+      <c r="I16">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J16">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.414611333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.243834</v>
+      </c>
+      <c r="O16">
+        <v>0.3011015967451943</v>
+      </c>
+      <c r="P16">
+        <v>0.3011015967451943</v>
+      </c>
+      <c r="Q16">
+        <v>2.685289264259778</v>
+      </c>
+      <c r="R16">
+        <v>24.167603378338</v>
+      </c>
+      <c r="S16">
+        <v>0.2060683893760064</v>
+      </c>
+      <c r="T16">
+        <v>0.2060683893760063</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H17">
+        <v>5.694757</v>
+      </c>
+      <c r="I17">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J17">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.427436666666667</v>
+      </c>
+      <c r="N17">
+        <v>4.28231</v>
+      </c>
+      <c r="O17">
+        <v>0.3038314832196342</v>
+      </c>
+      <c r="P17">
+        <v>0.3038314832196342</v>
+      </c>
+      <c r="Q17">
+        <v>2.709634983185556</v>
+      </c>
+      <c r="R17">
+        <v>24.38671484867</v>
+      </c>
+      <c r="S17">
+        <v>0.2079366734204886</v>
+      </c>
+      <c r="T17">
+        <v>0.2079366734204885</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H18">
+        <v>5.694757</v>
+      </c>
+      <c r="I18">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J18">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.3838566666666667</v>
+      </c>
+      <c r="N18">
+        <v>1.15157</v>
+      </c>
+      <c r="O18">
+        <v>0.08170431872779743</v>
+      </c>
+      <c r="P18">
+        <v>0.0817043187277974</v>
+      </c>
+      <c r="Q18">
+        <v>0.7286568131655556</v>
+      </c>
+      <c r="R18">
+        <v>6.55791131849</v>
+      </c>
+      <c r="S18">
+        <v>0.05591693151846365</v>
+      </c>
+      <c r="T18">
+        <v>0.05591693151846363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>1.898252333333333</v>
+      </c>
+      <c r="H19">
+        <v>5.694757</v>
+      </c>
+      <c r="I19">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="J19">
+        <v>0.684381589481874</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.7827166666666666</v>
+      </c>
+      <c r="N19">
+        <v>2.34815</v>
+      </c>
+      <c r="O19">
+        <v>0.1666021136541222</v>
+      </c>
+      <c r="P19">
+        <v>0.1666021136541222</v>
+      </c>
+      <c r="Q19">
+        <v>1.485793738838889</v>
+      </c>
+      <c r="R19">
+        <v>13.37214364955</v>
+      </c>
+      <c r="S19">
+        <v>0.114019419353648</v>
+      </c>
+      <c r="T19">
+        <v>0.114019419353648</v>
       </c>
     </row>
   </sheetData>
